--- a/pred_ohlcv/54_21/2020-01-24 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 EOS ohlcv.xlsx
@@ -1172,7 +1172,7 @@
         <v>10336.67334016</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>11651.63834016</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>10761.79774016</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>10023.26944016</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>6090.49814016</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>9638.075640159999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>7320.225440159999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>9320.22544016</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>10940.32284016</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>10940.32284016</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>9720.960740160001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>9501.33324016</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>9028.706340160001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>9031.085027120002</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>8876.512427120002</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>8797.749227120003</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>8795.027027120002</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>7262.220427120003</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>7290.228727120003</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>8044.228727120003</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>7938.893227120003</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>7478.167627120003</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>9865.593127120002</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>9441.526027120002</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>9425.934027120002</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>9547.541809930002</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>9380.176809930002</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>13862.33100993</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>13969.40760993</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>12830.22630993</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>12830.22630993</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>12830.22630993</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>12597.29860993</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>12573.69500993</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>12543.72930993</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>12835.85630993</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>12835.85630993</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>12855.85630993</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>12855.85630993</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>12790.67940993</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>7790.679409930002</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-8338.043317830005</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-8268.505817830004</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-8568.505817830004</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-10714.56571783</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-17356.88073449001</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-17349.71743449</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-17459.07843449001</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-17480.41003449001</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-17470.34763449001</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-17470.34763449001</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-17599.03943449001</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-17599.03943449001</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-17451.16130692001</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-17450.84600692001</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-17899.69380692001</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-16962.36080692001</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-17831.73457055001</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-17735.59157055001</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-25431.86447055001</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-25380.96677055001</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-25143.42587055001</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-25167.66297055001</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-25569.53877055001</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-25569.53877055001</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-25569.53877055001</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-25855.75517055001</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-25551.25157055001</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-25804.18557055001</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-25804.18557055001</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-25804.18557055001</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-26847.95107055001</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-26847.95107055001</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-27204.40747055001</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-28699.86937055001</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-28399.86937055001</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-28399.86937055001</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-54671.68826568995</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-54671.68826568995</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-54671.68826568995</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-52386.27416568995</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-50328.65406568995</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-52440.09876568995</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-52440.09876568995</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-52440.09876568995</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-56173.04646568995</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-56173.04646568995</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-57852.53826568995</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-55029.84846568995</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-55029.84846568995</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-55048.68656568995</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-47453.21376568996</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-46924.78716568996</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-44143.16396568996</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-44373.82166568996</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-44109.27106568996</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-40803.98786568996</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-39758.57366568996</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-39758.45866568996</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-39958.45866568996</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-39691.61366568996</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-39735.89616568996</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-43917.77726568996</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-43604.18666568996</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-43496.00436568996</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-43961.21726568996</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-43247.43176568996</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-42963.45326568996</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-44131.18826568996</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-41884.83156568996</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-41636.10666568996</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-41047.86927606996</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-40782.86927606996</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-40309.59035995996</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-40854.71305995996</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-40734.39005995997</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-40734.39005995997</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-44235.63305995997</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-44235.63305995997</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-44236.84695995997</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-46838.54925995997</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-47762.43115995997</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-46868.43915995997</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-46868.43915995997</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-54896.10525995997</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-50683.40055995997</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-55359.00435995997</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-52184.60705995997</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-51795.64115995997</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-51408.62595995997</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-53104.79925995997</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-54663.48105995997</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-60174.64625995997</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-58029.81075995997</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-103432.42705996</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-103375.04745996</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-103375.04745996</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-103725.04745996</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-100180.73245996</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-100180.73245996</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-97041.59385995995</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-97041.59385995995</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-96132.27125995995</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-96236.40155995995</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-96407.98535995994</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-96287.40595995994</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-95004.03755995994</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-94458.28655995993</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-94458.28655995993</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-95821.44845995994</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-95758.71525995994</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-95606.72365995994</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-95606.72365995994</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-96369.65855995993</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-96369.65855995993</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-97227.38165995994</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-95998.30605995994</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-98591.76485995993</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-100244.8826599599</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-100116.6276599599</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-97465.27235995993</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-97465.27235995993</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-97377.77175995993</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-97791.83305995993</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-99031.51505995993</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-98954.51505995993</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-99409.74145995993</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-99409.74145995993</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-99409.74145995993</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-99045.84845995993</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-100406.3387599599</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-97190.55185995993</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-97191.17335995992</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-97191.17335995992</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-96717.58205995992</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-98728.08935995992</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-98805.58935995992</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-98805.58935995992</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-97479.07275995992</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-113125.3612747999</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-100209.6920747999</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-96653.29137479991</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-94237.99927479991</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-94400.32997479991</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-94864.95167479992</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-97398.12687479991</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-94765.81362264992</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-94765.81362264992</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-93466.44922264991</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-94332.92742264991</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-94091.85672264991</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-95184.92412264991</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-95723.15272264992</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-97903.78122264991</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-97891.8767226499</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-97563.4465226499</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-97922.67702264991</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-97924.6870226499</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-99645.59742264991</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-99644.56172264992</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-98891.05622264992</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-98891.05622264992</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-98980.07412264992</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-98285.36012264992</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-98285.36012264992</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-98285.36012264992</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-98092.96602264991</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-99523.98032264991</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-99102.82262264991</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-102084.5720226499</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-109335.1074226499</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-98600.57712264991</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-100896.9524226499</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-100517.3108226499</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-106017.1656226499</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-105611.3870226499</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-122437.0859613398</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-122424.9609613398</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-127752.1594613398</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-134479.3502613399</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-130675.1221613399</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-130467.5789613399</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-130531.6063613399</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-130390.2682613399</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-132651.2021613399</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-133446.3375613399</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-137670.9014613399</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-132059.1274613399</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-132059.1274613399</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 EOS ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>10355.56224016</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>10336.67334016</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>11651.63834016</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>10761.79774016</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>10023.26944016</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>6090.49814016</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>9638.075640159999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>7320.225440159999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>9320.22544016</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>10940.32284016</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>10940.32284016</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>9720.960740160001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>9501.33324016</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>9028.706340160001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>9031.085027120002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>8876.512427120002</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>8797.749227120003</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>8795.027027120002</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>7262.220427120003</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>7290.228727120003</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>8044.228727120003</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>7938.893227120003</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>7478.167627120003</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>9865.593127120002</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>9441.526027120002</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>9425.934027120002</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>9547.541809930002</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>9380.176809930002</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>13862.33100993</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>13969.40760993</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>12830.22630993</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>12830.22630993</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>12830.22630993</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>12597.29860993</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>12573.69500993</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>12543.72930993</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>12835.85630993</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>12835.85630993</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>12855.85630993</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>12855.85630993</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>12790.67940993</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>7790.679409930002</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>8054.182609930002</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-8338.043317830005</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-8268.505817830004</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-8568.505817830004</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-10714.56571783</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-17356.88073449001</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-17349.71743449</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-17459.07843449001</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-17480.41003449001</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-17470.34763449001</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-17470.34763449001</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-17599.03943449001</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-17599.03943449001</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-17451.16130692001</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-17450.84600692001</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-17899.69380692001</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-16962.36080692001</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-17831.73457055001</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-17735.59157055001</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-25431.86447055001</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-25380.96677055001</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-25143.42587055001</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-25167.66297055001</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-25569.53877055001</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-25569.53877055001</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-25569.53877055001</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-25855.75517055001</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-25551.25157055001</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-25804.18557055001</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-25804.18557055001</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-25804.18557055001</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-26847.95107055001</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-26847.95107055001</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-27204.40747055001</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-28699.86937055001</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-28399.86937055001</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-28399.86937055001</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-54671.68826568995</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-54671.68826568995</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-54671.68826568995</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-52386.27416568995</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-50328.65406568995</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-52440.09876568995</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-52440.09876568995</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-52440.09876568995</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-56173.04646568995</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-56173.04646568995</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-57852.53826568995</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-55029.84846568995</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-55029.84846568995</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-55048.68656568995</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-47453.21376568996</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-46924.78716568996</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-44143.16396568996</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-44373.82166568996</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-44109.27106568996</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-40803.98786568996</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-39758.57366568996</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-39758.45866568996</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-39958.45866568996</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-39691.61366568996</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-39735.89616568996</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-43917.77726568996</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-43604.18666568996</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-43496.00436568996</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-43961.21726568996</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-43247.43176568996</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-42963.45326568996</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-44131.18826568996</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-41884.83156568996</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-41636.10666568996</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-41047.86927606996</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-40782.86927606996</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-40309.59035995996</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-40854.71305995996</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-40734.39005995997</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-40734.39005995997</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-44235.63305995997</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-44235.63305995997</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-44236.84695995997</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-46838.54925995997</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-47762.43115995997</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-46868.43915995997</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-46868.43915995997</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-54896.10525995997</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-50683.40055995997</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-55359.00435995997</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-52184.60705995997</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-51795.64115995997</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-51408.62595995997</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-53104.79925995997</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-54663.48105995997</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-60174.64625995997</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-58029.81075995997</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-103432.42705996</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-103375.04745996</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-103375.04745996</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-103725.04745996</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-100180.73245996</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-100180.73245996</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-97041.59385995995</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-97041.59385995995</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-96132.27125995995</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-96236.40155995995</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-96407.98535995994</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-96287.40595995994</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-95004.03755995994</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-94458.28655995993</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-94458.28655995993</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-95821.44845995994</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-95758.71525995994</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-95606.72365995994</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-95606.72365995994</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-96369.65855995993</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-96369.65855995993</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-97227.38165995994</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-95998.30605995994</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-98591.76485995993</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-100244.8826599599</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-100116.6276599599</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-97465.27235995993</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-97465.27235995993</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-97377.77175995993</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-97791.83305995993</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-99031.51505995993</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-98954.51505995993</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-99409.74145995993</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-99409.74145995993</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-99409.74145995993</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-99045.84845995993</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-100406.3387599599</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-97190.55185995993</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-97191.17335995992</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-97191.17335995992</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-96717.58205995992</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-98728.08935995992</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-98805.58935995992</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-98805.58935995992</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-97479.07275995992</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-113125.3612747999</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-100209.6920747999</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-96653.29137479991</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-94237.99927479991</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-94400.32997479991</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-94864.95167479992</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-97398.12687479991</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-94765.81362264992</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-94765.81362264992</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-93466.44922264991</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-94332.92742264991</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-94091.85672264991</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-95184.92412264991</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-95723.15272264992</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-97903.78122264991</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-97891.8767226499</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-97563.4465226499</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-97922.67702264991</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-97924.6870226499</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-99645.59742264991</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-99644.56172264992</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-98891.05622264992</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-98891.05622264992</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-98980.07412264992</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-98285.36012264992</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-98285.36012264992</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-98285.36012264992</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-98092.96602264991</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-99523.98032264991</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-99102.82262264991</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-102084.5720226499</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-109335.1074226499</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-98600.57712264991</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-100896.9524226499</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-100517.3108226499</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-106017.1656226499</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-105611.3870226499</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-122437.0859613398</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-122424.9609613398</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-127752.1594613398</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-134479.3502613399</v>
       </c>
       <c r="H914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-130675.1221613399</v>
       </c>
       <c r="H915">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-130467.5789613399</v>
       </c>
       <c r="H916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-130531.6063613399</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-130390.2682613399</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-132651.2021613399</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-133446.3375613399</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-137670.9014613399</v>
       </c>
       <c r="H922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-132059.1274613399</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-132059.1274613399</v>
       </c>
       <c r="H924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-120673.4387613399</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-120673.4387613399</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-122193.9029613399</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-121724.5135613399</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
